--- a/Box/raw/Products.xlsx
+++ b/Box/raw/Products.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Din\Desktop\Box\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TapNham\MyMapRepeating\Box\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762FAB4B-0D2D-4063-999F-2572679F9533}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB381CE3-A6F2-48FA-851F-13A3CBCDA3BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{029113BF-F2DF-4431-9A3F-C29243E38A7E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>title</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>productImage/27EkTabMxt1mnP5vqlQl/oreo.jpg</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +545,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>7000</v>
@@ -562,7 +565,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>7000</v>

--- a/Box/raw/Products.xlsx
+++ b/Box/raw/Products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TapNham\MyMapRepeating\Box\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB381CE3-A6F2-48FA-851F-13A3CBCDA3BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8596E2FF-D238-4EE8-96DF-974D6F02C2A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{029113BF-F2DF-4431-9A3F-C29243E38A7E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>title</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>productImage/27EkTabMxt1mnP5vqlQl/oreo.jpg</t>
   </si>
 </sst>
 </file>
@@ -425,7 +422,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +542,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>7000</v>
@@ -565,7 +562,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>7000</v>
